--- a/itech-malawi/forms/app/unmute.xlsx
+++ b/itech-malawi/forms/app/unmute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>type</t>
   </si>
@@ -166,6 +166,33 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>rapidpro</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>optout</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>adherance</t>
+  </si>
+  <si>
+    <t>selected(${message_to_resume}, ‘motivational_messages’)</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>reminders</t>
+  </si>
+  <si>
+    <t>selected(${message_to_resume}, ‘visit_reminder’)</t>
   </si>
   <si>
     <t>list_name</t>
@@ -340,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -460,6 +487,26 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="18"/>
       </left>
       <right style="thin">
@@ -600,52 +647,52 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="9" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -873,17 +920,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -911,10 +958,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1162,12 +1209,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1454,7 +1501,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1482,10 +1529,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1736,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1752,7 +1799,7 @@
     <col min="8" max="8" width="18.8516" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.8516" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5781" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
     <col min="13" max="26" width="11.5" style="1" customWidth="1"/>
     <col min="27" max="16384" width="11.5" style="1" customWidth="1"/>
@@ -2262,20 +2309,26 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" ht="15.35" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="17"/>
+    <row r="15" ht="29.25" customHeight="1">
+      <c r="A15" t="s" s="27">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s" s="28">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s" s="29">
+        <v>45</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
@@ -2292,17 +2345,19 @@
     </row>
     <row r="16" ht="29.25" customHeight="1">
       <c r="A16" t="s" s="27">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s" s="28">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B16" t="s" s="32">
+        <v>47</v>
       </c>
       <c r="C16" t="s" s="29">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="F16" t="s" s="33">
+        <v>30</v>
+      </c>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
@@ -2324,21 +2379,19 @@
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
     </row>
-    <row r="17" ht="29.25" customHeight="1">
+    <row r="17" ht="15.35" customHeight="1">
       <c r="A17" t="s" s="27">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s" s="32">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="B17" t="s" s="28">
+        <v>49</v>
       </c>
       <c r="C17" t="s" s="29">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
-      <c r="F17" t="s" s="33">
-        <v>30</v>
-      </c>
+      <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -2362,14 +2415,10 @@
     </row>
     <row r="18" ht="15.35" customHeight="1">
       <c r="A18" t="s" s="27">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s" s="28">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s" s="29">
-        <v>50</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -2395,20 +2444,26 @@
       <c r="Z18" s="17"/>
     </row>
     <row r="19" ht="15.35" customHeight="1">
-      <c r="A19" t="s" s="27">
-        <v>35</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
+      <c r="A19" t="s" s="22">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s" s="23">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s" s="24">
+        <v>52</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" t="s" s="35">
+        <v>20</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="16"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
@@ -2425,19 +2480,27 @@
       <c r="Z19" s="17"/>
     </row>
     <row r="20" ht="15.35" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="17"/>
+      <c r="A20" t="s" s="22">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s" s="23">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s" s="24">
+        <v>52</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" t="s" s="24">
+        <v>54</v>
+      </c>
+      <c r="L20" s="24"/>
+      <c r="M20" s="16"/>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
@@ -2453,19 +2516,29 @@
       <c r="Z20" s="17"/>
     </row>
     <row r="21" ht="15.35" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
+      <c r="A21" t="s" s="22">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s" s="23">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s" s="24">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s" s="35">
+        <v>56</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" t="s" s="24">
+        <v>57</v>
+      </c>
+      <c r="L21" s="24"/>
+      <c r="M21" s="16"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
@@ -2481,19 +2554,29 @@
       <c r="Z21" s="17"/>
     </row>
     <row r="22" ht="15.35" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
+      <c r="A22" t="s" s="22">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s" s="23">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s" s="24">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s" s="35">
+        <v>59</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" t="s" s="24">
+        <v>57</v>
+      </c>
+      <c r="L22" s="24"/>
+      <c r="M22" s="16"/>
       <c r="N22" s="17"/>
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
@@ -2507,6 +2590,36 @@
       <c r="X22" s="17"/>
       <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
+    </row>
+    <row r="23" ht="15.35" customHeight="1">
+      <c r="A23" t="s" s="36">
+        <v>35</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
@@ -2525,100 +2638,99 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="39" customWidth="1"/>
-    <col min="2" max="2" width="20.3828" style="39" customWidth="1"/>
-    <col min="3" max="3" width="20.3047" style="39" customWidth="1"/>
-    <col min="4" max="5" width="11.5" style="39" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="39" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="40" customWidth="1"/>
+    <col min="2" max="3" width="20.3516" style="40" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="40" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.35" customHeight="1">
-      <c r="A1" t="s" s="40">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s" s="40">
+      <c r="A1" t="s" s="41">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s" s="41">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="40">
+      <c r="C1" t="s" s="41">
         <v>2</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" ht="15.35" customHeight="1">
       <c r="A2" t="s" s="42">
         <v>47</v>
       </c>
       <c r="B2" t="s" s="42">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s" s="42">
-        <v>53</v>
-      </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="15.35" customHeight="1">
       <c r="A3" t="s" s="42">
         <v>47</v>
       </c>
       <c r="B3" t="s" s="42">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s" s="42">
-        <v>55</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+        <v>64</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" ht="15.35" customHeight="1">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
@@ -2648,31 +2760,31 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1">
       <c r="A1" t="s" s="45">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s" s="45">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s" s="45">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s" s="45">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s" s="45">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s" s="45">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s" s="45">
         <v>1</v>
       </c>
       <c r="H1" t="s" s="45">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I1" t="s" s="45">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J1" s="45"/>
       <c r="K1" s="45"/>
@@ -2694,29 +2806,29 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s" s="47">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s" s="48">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C2" s="49">
         <v>43008</v>
       </c>
       <c r="D2" t="s" s="48">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s" s="48">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F2" s="50"/>
       <c r="G2" t="s" s="48">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="48">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="48">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J2" s="50"/>
       <c r="K2" s="50"/>
@@ -2737,228 +2849,228 @@
       <c r="Z2" s="50"/>
     </row>
     <row r="3" ht="15.35" customHeight="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
     </row>
     <row r="4" ht="15.35" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
     </row>
     <row r="5" ht="15.35" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
     </row>
     <row r="6" ht="15.35" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
     </row>
     <row r="7" ht="15.35" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
     </row>
     <row r="8" ht="15.35" customHeight="1">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
     </row>
     <row r="9" ht="15.35" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
     </row>
     <row r="10" ht="15.35" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.747917" right="0.747917" top="0.984028" bottom="0.984028" header="0.511806" footer="0.511806"/>
